--- a/BC4400/Lecture2/excel_intro.xlsx
+++ b/BC4400/Lecture2/excel_intro.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cuny547-my.sharepoint.com/personal/dailoae_gradcenter_cuny_edu/Documents/Documents/Work/Teaching/_BK_College/Lecture2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f196d72845a7bb/Documents/GitHub/wwwedu.github.io/BC4400/Lecture2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{DADE5FCE-B8BD-4D40-8845-F133EDD696AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B32ECA81-8898-415C-AF07-637C6DFCB1B7}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{DADE5FCE-B8BD-4D40-8845-F133EDD696AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B9E522F-24F6-4188-8B3B-2C6570278B9C}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
-    <sheet name="SW Table 1.3" sheetId="2" r:id="rId2"/>
-    <sheet name="Data" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId2"/>
+    <sheet name="SW Table 1.3" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Data" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="69">
   <si>
     <t>x</t>
   </si>
@@ -201,6 +203,45 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>Constant:</t>
+  </si>
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Nancy</t>
+  </si>
+  <si>
+    <t>LMNOP</t>
+  </si>
+  <si>
+    <t>Gifted students</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>U</t>
   </si>
 </sst>
 </file>
@@ -765,6 +806,1753 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Data!$A$2:$A$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="142"/>
+                <c:pt idx="0">
+                  <c:v>55.384599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.538499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.153799999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.820500000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.769199999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38.7179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.640999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.076900000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.974399999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.1538</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.076899999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.307700000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.307700000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23.333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.897400000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>29.487200000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32.820500000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35.384599999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40.256399999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44.102600000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46.666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53.076900000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56.666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59.230800000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>61.2821</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61.538499999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>61.794899999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>57.435899999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>54.8718</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>52.564100000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>48.205100000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>49.487200000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51.025599999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45.384599999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42.820500000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38.7179</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>35.1282</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32.564100000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33.589700000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>36.666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>38.205100000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>29.743600000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.743600000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32.051299999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35.897399999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41.025599999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44.102600000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>47.179499999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>49.487200000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>51.538499999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53.589700000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55.1282</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>59.230800000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62.307699999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>64.871799999999993</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>67.948700000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>70.512799999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>71.538499999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>71.538499999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>69.487200000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>46.923099999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>48.205100000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>53.076900000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>55.384599999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>56.666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>56.153799999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>53.846200000000003</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>51.2821</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>47.948700000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>29.743600000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>29.743600000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>31.2821</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>57.948700000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>61.794899999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>64.871799999999993</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>68.461500000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>70.769199999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>72.051299999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>73.846199999999996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>75.128200000000007</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>76.666700000000006</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>77.692300000000003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>79.743600000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>81.794899999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>83.333299999999994</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>85.128200000000007</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>86.410300000000007</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>87.948700000000002</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>89.487200000000001</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>93.333299999999994</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>95.384600000000006</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98.205100000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>56.666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>59.230800000000002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>60.769199999999998</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>63.076900000000002</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>64.102599999999995</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>64.358999999999995</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>74.358999999999995</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>71.2821</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>67.948700000000002</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>65.897400000000005</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>63.076900000000002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>61.2821</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>58.7179</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>55.1282</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>52.307699999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>49.743600000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>47.435899999999997</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44.8718</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>48.7179</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>51.2821</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>54.102600000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>56.153799999999997</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>52.051299999999998</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>48.7179</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>47.179499999999997</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>46.153799999999997</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>50.512799999999999</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>53.846200000000003</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>57.435899999999997</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>64.102599999999995</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>66.923100000000005</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>71.2821</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>74.358999999999995</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>78.205100000000002</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>67.948700000000002</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>68.461500000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>68.205100000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>37.692300000000003</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>39.487200000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>91.2821</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>47.948700000000002</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44.102600000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Data!$B$2:$B$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="142"/>
+                <c:pt idx="0">
+                  <c:v>97.179500000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.025599999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.487200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.410300000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88.333299999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.871799999999993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.871799999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.564099999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.487200000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.410300000000007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66.410300000000007</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.794899999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57.179499999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.948700000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.025599999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51.025599999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51.025599999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.410299999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51.410299999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.948700000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>54.102600000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>55.256399999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55.640999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>56.025599999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>57.948700000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>62.179499999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>66.410300000000007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>69.102599999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>55.256399999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49.8718</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46.025599999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38.333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42.179499999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44.102600000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36.410299999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32.564100000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31.410299999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30.256399999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>32.179499999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>36.794899999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.410299999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45.640999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49.102600000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>36.025599999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32.179499999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>29.102599999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>26.794899999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25.256399999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25.256399999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25.640999999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>28.718</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>31.410299999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>34.8718</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37.564100000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>40.640999999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42.179499999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44.487200000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>46.025599999999997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>46.794899999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>47.948700000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>53.718000000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>60.640999999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>64.487200000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>69.487200000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>79.871799999999993</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>84.102599999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>85.256399999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>85.256399999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>86.025599999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>86.025599999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>82.948700000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>80.641000000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>78.718000000000004</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78.718000000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>77.564099999999996</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>59.8718</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>62.179499999999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>62.564100000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>99.487200000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>99.102599999999995</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>97.564099999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>94.102599999999995</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>91.025599999999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>86.410300000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>83.333299999999994</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>79.102599999999995</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>75.256399999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>71.410300000000007</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>66.794899999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>60.256399999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>55.256399999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>51.410299999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>47.564100000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>46.025599999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42.564100000000003</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>39.8718</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>36.794899999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>33.718000000000004</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>40.640999999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>38.333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>33.718000000000004</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>29.102599999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>25.256399999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>24.102599999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>22.948699999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>22.948699999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>22.179500000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>20.256399999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>19.102599999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>19.102599999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>18.333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>18.333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>18.333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>17.5641</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>16.025600000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>13.718</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>14.8718</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>14.8718</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>14.8718</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>14.102600000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12.5641</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>11.025600000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>9.8718000000000004</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6.0255999999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>9.4871999999999996</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>10.256399999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>10.256399999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>10.641</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>10.641</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>10.641</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>10.641</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>10.641</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>10.641</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8.718</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5.2564000000000002</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.9487000000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>25.769200000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>25.384599999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>41.538499999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>95.769199999999998</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>92.692300000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-447C-4C2C-B6AE-FE20E2366F66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="740820720"/>
+        <c:axId val="740818224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="740820720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740818224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="740818224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="740820720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>519792</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>519792</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5217106-443B-4E14-86A3-9CA5DCC310BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1062,21 +2850,2191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C38EBE-0B83-4B9A-B0E9-788AA245BC09}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.53515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <f>A1*4</f>
+        <v>4</v>
+      </c>
+      <c r="C1">
+        <f>A1*$H$1</f>
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B65" si="0">A2*4</f>
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C65" si="1">A2*$H$1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>152</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>164</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>184</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>236</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:B81" si="2">A66*4</f>
+        <v>264</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C81" si="3">A66*$H$1</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="2"/>
+        <v>268</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="3"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="2"/>
+        <v>272</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="3"/>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="2"/>
+        <v>276</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="3"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="2"/>
+        <v>284</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="3"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="2"/>
+        <v>292</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="2"/>
+        <v>296</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="3"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="2"/>
+        <v>304</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="3"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="2"/>
+        <v>308</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="3"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="2"/>
+        <v>312</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="3"/>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="2"/>
+        <v>316</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="3"/>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="3"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ref="B66:B129" si="4">A82*4</f>
+        <v>328</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ref="C19:C82" si="5">A82*$H$1</f>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="4"/>
+        <v>332</v>
+      </c>
+      <c r="C83">
+        <f t="shared" ref="C83:C146" si="6">A83*$H$1</f>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="4"/>
+        <v>336</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="6"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="4"/>
+        <v>340</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="6"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="4"/>
+        <v>344</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="6"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="4"/>
+        <v>348</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="6"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="4"/>
+        <v>352</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="6"/>
+        <v>440</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="4"/>
+        <v>356</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="6"/>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="4"/>
+        <v>364</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="6"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="4"/>
+        <v>368</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="6"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="4"/>
+        <v>372</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="6"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="4"/>
+        <v>376</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="6"/>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="4"/>
+        <v>380</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="6"/>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="4"/>
+        <v>384</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="6"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="4"/>
+        <v>388</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="6"/>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="4"/>
+        <v>392</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="6"/>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="4"/>
+        <v>396</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="6"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="6"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="4"/>
+        <v>404</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="6"/>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="4"/>
+        <v>408</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="6"/>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="4"/>
+        <v>412</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="6"/>
+        <v>515</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="4"/>
+        <v>416</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="6"/>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="4"/>
+        <v>420</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="6"/>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="4"/>
+        <v>424</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="6"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="4"/>
+        <v>428</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="6"/>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="4"/>
+        <v>432</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="6"/>
+        <v>540</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="4"/>
+        <v>436</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="6"/>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="4"/>
+        <v>440</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="6"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="4"/>
+        <v>444</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="6"/>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="4"/>
+        <v>448</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="6"/>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="4"/>
+        <v>452</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="6"/>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="4"/>
+        <v>456</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="6"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="4"/>
+        <v>460</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="6"/>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="4"/>
+        <v>464</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="6"/>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="4"/>
+        <v>468</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="6"/>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="4"/>
+        <v>472</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="6"/>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="4"/>
+        <v>476</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="6"/>
+        <v>595</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="4"/>
+        <v>480</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="6"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="4"/>
+        <v>484</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="6"/>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="4"/>
+        <v>488</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="6"/>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="4"/>
+        <v>492</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="6"/>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="4"/>
+        <v>496</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="6"/>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="6"/>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="4"/>
+        <v>504</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="6"/>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="4"/>
+        <v>508</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="6"/>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="4"/>
+        <v>512</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="6"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="4"/>
+        <v>516</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="6"/>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <f t="shared" ref="B130:B157" si="7">A130*4</f>
+        <v>520</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="6"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="7"/>
+        <v>524</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="6"/>
+        <v>655</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="7"/>
+        <v>528</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="6"/>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="7"/>
+        <v>532</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="6"/>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="7"/>
+        <v>536</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="6"/>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="7"/>
+        <v>540</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="6"/>
+        <v>675</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="7"/>
+        <v>544</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="6"/>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="7"/>
+        <v>548</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="6"/>
+        <v>685</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="7"/>
+        <v>552</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="6"/>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="7"/>
+        <v>556</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="6"/>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="7"/>
+        <v>560</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="6"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="7"/>
+        <v>564</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="6"/>
+        <v>705</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="7"/>
+        <v>568</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="6"/>
+        <v>710</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="7"/>
+        <v>572</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="6"/>
+        <v>715</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="7"/>
+        <v>576</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="6"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="7"/>
+        <v>580</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="6"/>
+        <v>725</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="7"/>
+        <v>584</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="6"/>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="7"/>
+        <v>588</v>
+      </c>
+      <c r="C147">
+        <f t="shared" ref="C147:C157" si="8">A147*$H$1</f>
+        <v>735</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="7"/>
+        <v>592</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="8"/>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="7"/>
+        <v>596</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="8"/>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="7"/>
+        <v>600</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="8"/>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="7"/>
+        <v>604</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="8"/>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="7"/>
+        <v>608</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="8"/>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="7"/>
+        <v>612</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="8"/>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="7"/>
+        <v>616</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="8"/>
+        <v>770</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="7"/>
+        <v>620</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="8"/>
+        <v>775</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="7"/>
+        <v>624</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="8"/>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A157">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="7"/>
+        <v>628</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="8"/>
+        <v>785</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000E8335-B511-403A-834F-02545D97D978}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="6" max="8" width="3.69140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2">
+        <v>90</v>
+      </c>
+      <c r="I2">
+        <v>127</v>
+      </c>
+      <c r="J2" t="str">
+        <f>VLOOKUP(I2,$A:$D,2,1)</f>
+        <v>LMNOP</v>
+      </c>
+      <c r="K2">
+        <f>VLOOKUP(I2,$A:$D,4,1)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+      <c r="I3">
+        <v>126</v>
+      </c>
+      <c r="J3" t="str">
+        <f>VLOOKUP(I3,A:D,2,1)</f>
+        <v>LMNOP</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>126</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B863A41E-2B1C-46E8-8537-4794F6D40AAE}">
   <dimension ref="A1:F529"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -12199,13 +16157,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9510CD8C-A12D-45F5-8E74-2E4DE72F9396}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -13358,5 +17326,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/BC4400/Lecture2/excel_intro.xlsx
+++ b/BC4400/Lecture2/excel_intro.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7f196d72845a7bb/Documents/GitHub/wwwedu.github.io/BC4400/Lecture2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{DADE5FCE-B8BD-4D40-8845-F133EDD696AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B9E522F-24F6-4188-8B3B-2C6570278B9C}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{DADE5FCE-B8BD-4D40-8845-F133EDD696AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF97DB83-DADB-42C3-84D5-ED3E75FD1616}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId2"/>
     <sheet name="SW Table 1.3" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
-    <sheet name="Data" sheetId="1" r:id="rId5"/>
+    <sheet name="Data" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="75">
   <si>
     <t>x</t>
   </si>
@@ -243,6 +242,24 @@
   <si>
     <t>U</t>
   </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>StdDev</t>
+  </si>
+  <si>
+    <t>https://www.autodesk.com/research/publications/same-stats-different-graphs</t>
+  </si>
+  <si>
+    <t>See more here:</t>
+  </si>
 </sst>
 </file>
 
@@ -252,7 +269,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +400,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -685,7 +710,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -728,8 +753,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -748,8 +774,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -783,6 +812,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -821,6 +851,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Scatter</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> X vs Y</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1765,7 +1825,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-447C-4C2C-B6AE-FE20E2366F66}"/>
+              <c16:uniqueId val="{00000000-0634-4421-B053-66F8B897EFA5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2516,27 +2576,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>519792</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>519792</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>179614</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5217106-443B-4E14-86A3-9CA5DCC310BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37916FCB-E132-48E2-9E49-50C7B77B64F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2852,16 +2914,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C38EBE-0B83-4B9A-B0E9-788AA245BC09}">
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.53515625" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2880,7 +2940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2893,7 +2953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2906,7 +2966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2919,7 +2979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -2932,7 +2992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2945,7 +3005,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -2958,7 +3018,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -2971,7 +3031,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -2984,7 +3044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -2997,7 +3057,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -3010,7 +3070,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12</v>
       </c>
@@ -3023,7 +3083,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>13</v>
       </c>
@@ -3036,7 +3096,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>14</v>
       </c>
@@ -3049,7 +3109,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -3062,7 +3122,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>16</v>
       </c>
@@ -3075,7 +3135,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
@@ -3088,7 +3148,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
@@ -3101,7 +3161,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
@@ -3114,7 +3174,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
@@ -3127,7 +3187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
@@ -3140,7 +3200,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
@@ -3153,7 +3213,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
@@ -3166,7 +3226,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
@@ -3179,7 +3239,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
@@ -3192,7 +3252,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
@@ -3205,7 +3265,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
@@ -3218,7 +3278,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
@@ -3231,7 +3291,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
@@ -3244,7 +3304,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
@@ -3257,7 +3317,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3270,7 +3330,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -3283,7 +3343,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -3296,7 +3356,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -3309,7 +3369,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>35</v>
       </c>
@@ -3322,7 +3382,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -3335,7 +3395,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -3348,7 +3408,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -3361,7 +3421,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>39</v>
       </c>
@@ -3374,7 +3434,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -3387,7 +3447,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>41</v>
       </c>
@@ -3400,7 +3460,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>42</v>
       </c>
@@ -3413,7 +3473,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
@@ -3426,7 +3486,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>44</v>
       </c>
@@ -3439,7 +3499,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>45</v>
       </c>
@@ -3452,7 +3512,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>46</v>
       </c>
@@ -3465,7 +3525,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>47</v>
       </c>
@@ -3478,7 +3538,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>48</v>
       </c>
@@ -3491,7 +3551,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -3504,7 +3564,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
@@ -3517,7 +3577,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>51</v>
       </c>
@@ -3530,7 +3590,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>52</v>
       </c>
@@ -3543,7 +3603,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>53</v>
       </c>
@@ -3556,7 +3616,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>54</v>
       </c>
@@ -3569,7 +3629,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>55</v>
       </c>
@@ -3582,7 +3642,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>56</v>
       </c>
@@ -3595,7 +3655,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>57</v>
       </c>
@@ -3608,7 +3668,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>58</v>
       </c>
@@ -3621,7 +3681,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>59</v>
       </c>
@@ -3634,7 +3694,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>60</v>
       </c>
@@ -3647,7 +3707,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>61</v>
       </c>
@@ -3660,7 +3720,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>62</v>
       </c>
@@ -3673,7 +3733,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>63</v>
       </c>
@@ -3686,7 +3746,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>64</v>
       </c>
@@ -3699,7 +3759,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>65</v>
       </c>
@@ -3712,7 +3772,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>66</v>
       </c>
@@ -3725,7 +3785,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>67</v>
       </c>
@@ -3738,7 +3798,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>68</v>
       </c>
@@ -3751,7 +3811,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>69</v>
       </c>
@@ -3764,7 +3824,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>70</v>
       </c>
@@ -3777,7 +3837,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>71</v>
       </c>
@@ -3790,7 +3850,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>72</v>
       </c>
@@ -3803,7 +3863,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>73</v>
       </c>
@@ -3816,7 +3876,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>74</v>
       </c>
@@ -3829,7 +3889,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>75</v>
       </c>
@@ -3842,7 +3902,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>76</v>
       </c>
@@ -3855,7 +3915,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>77</v>
       </c>
@@ -3868,7 +3928,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>78</v>
       </c>
@@ -3881,7 +3941,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>79</v>
       </c>
@@ -3894,7 +3954,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>80</v>
       </c>
@@ -3907,7 +3967,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>81</v>
       </c>
@@ -3920,20 +3980,20 @@
         <v>405</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>82</v>
       </c>
       <c r="B82">
-        <f t="shared" ref="B66:B129" si="4">A82*4</f>
+        <f t="shared" ref="B82:B129" si="4">A82*4</f>
         <v>328</v>
       </c>
       <c r="C82">
-        <f t="shared" ref="C19:C82" si="5">A82*$H$1</f>
+        <f t="shared" ref="C82" si="5">A82*$H$1</f>
         <v>410</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>83</v>
       </c>
@@ -3946,7 +4006,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>84</v>
       </c>
@@ -3959,7 +4019,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>85</v>
       </c>
@@ -3972,7 +4032,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>86</v>
       </c>
@@ -3985,7 +4045,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>87</v>
       </c>
@@ -3998,7 +4058,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>88</v>
       </c>
@@ -4011,7 +4071,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>89</v>
       </c>
@@ -4024,7 +4084,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>90</v>
       </c>
@@ -4037,7 +4097,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>91</v>
       </c>
@@ -4050,7 +4110,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>92</v>
       </c>
@@ -4063,7 +4123,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>93</v>
       </c>
@@ -4076,7 +4136,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>94</v>
       </c>
@@ -4089,7 +4149,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>95</v>
       </c>
@@ -4102,7 +4162,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>96</v>
       </c>
@@ -4115,7 +4175,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>97</v>
       </c>
@@ -4128,7 +4188,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>98</v>
       </c>
@@ -4141,7 +4201,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>99</v>
       </c>
@@ -4154,7 +4214,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>100</v>
       </c>
@@ -4167,7 +4227,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>101</v>
       </c>
@@ -4180,7 +4240,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>102</v>
       </c>
@@ -4193,7 +4253,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>103</v>
       </c>
@@ -4206,7 +4266,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>104</v>
       </c>
@@ -4219,7 +4279,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>105</v>
       </c>
@@ -4232,7 +4292,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>106</v>
       </c>
@@ -4245,7 +4305,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>107</v>
       </c>
@@ -4258,7 +4318,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>108</v>
       </c>
@@ -4271,7 +4331,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>109</v>
       </c>
@@ -4284,7 +4344,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>110</v>
       </c>
@@ -4297,7 +4357,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>111</v>
       </c>
@@ -4310,7 +4370,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>112</v>
       </c>
@@ -4323,7 +4383,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>113</v>
       </c>
@@ -4336,7 +4396,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>114</v>
       </c>
@@ -4349,7 +4409,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>115</v>
       </c>
@@ -4362,7 +4422,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>116</v>
       </c>
@@ -4375,7 +4435,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>117</v>
       </c>
@@ -4388,7 +4448,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>118</v>
       </c>
@@ -4401,7 +4461,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>119</v>
       </c>
@@ -4414,7 +4474,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>120</v>
       </c>
@@ -4427,7 +4487,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>121</v>
       </c>
@@ -4440,7 +4500,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>122</v>
       </c>
@@ -4453,7 +4513,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>123</v>
       </c>
@@ -4466,7 +4526,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>124</v>
       </c>
@@ -4479,7 +4539,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>125</v>
       </c>
@@ -4492,7 +4552,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>126</v>
       </c>
@@ -4505,7 +4565,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>127</v>
       </c>
@@ -4518,7 +4578,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>128</v>
       </c>
@@ -4531,7 +4591,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>129</v>
       </c>
@@ -4544,7 +4604,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>130</v>
       </c>
@@ -4557,7 +4617,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>131</v>
       </c>
@@ -4570,7 +4630,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>132</v>
       </c>
@@ -4583,7 +4643,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>133</v>
       </c>
@@ -4596,7 +4656,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>134</v>
       </c>
@@ -4609,7 +4669,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>135</v>
       </c>
@@ -4622,7 +4682,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>136</v>
       </c>
@@ -4635,7 +4695,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>137</v>
       </c>
@@ -4648,7 +4708,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>138</v>
       </c>
@@ -4661,7 +4721,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>139</v>
       </c>
@@ -4674,7 +4734,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>140</v>
       </c>
@@ -4687,7 +4747,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>141</v>
       </c>
@@ -4700,7 +4760,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>142</v>
       </c>
@@ -4713,7 +4773,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>143</v>
       </c>
@@ -4726,7 +4786,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>144</v>
       </c>
@@ -4739,7 +4799,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>145</v>
       </c>
@@ -4752,7 +4812,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>146</v>
       </c>
@@ -4765,7 +4825,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>147</v>
       </c>
@@ -4778,7 +4838,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>148</v>
       </c>
@@ -4791,7 +4851,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>149</v>
       </c>
@@ -4804,7 +4864,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>150</v>
       </c>
@@ -4817,7 +4877,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>151</v>
       </c>
@@ -4830,7 +4890,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>152</v>
       </c>
@@ -4843,7 +4903,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>153</v>
       </c>
@@ -4856,7 +4916,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>154</v>
       </c>
@@ -4869,7 +4929,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>155</v>
       </c>
@@ -4882,7 +4942,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>156</v>
       </c>
@@ -4895,7 +4955,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>157</v>
       </c>
@@ -4917,16 +4977,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000E8335-B511-403A-834F-02545D97D978}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="8" width="3.69140625" customWidth="1"/>
+    <col min="6" max="8" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -4949,7 +5007,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>123</v>
       </c>
@@ -4963,18 +5021,18 @@
         <v>90</v>
       </c>
       <c r="I2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J2" t="str">
-        <f>VLOOKUP(I2,$A:$D,2,1)</f>
-        <v>LMNOP</v>
+        <f>VLOOKUP(I2,$A:$D,2,0)</f>
+        <v>Nancy</v>
       </c>
       <c r="K2">
-        <f>VLOOKUP(I2,$A:$D,4,1)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+        <f>VLOOKUP(I2,$A:$D,4,0)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>124</v>
       </c>
@@ -4987,15 +5045,15 @@
       <c r="D3">
         <v>80</v>
       </c>
-      <c r="I3">
-        <v>126</v>
-      </c>
-      <c r="J3" t="str">
+      <c r="I3" s="6">
+        <v>127</v>
+      </c>
+      <c r="J3" s="6" t="str">
         <f>VLOOKUP(I3,A:D,2,1)</f>
         <v>LMNOP</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>125</v>
       </c>
@@ -5009,7 +5067,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>126</v>
       </c>
@@ -5036,16 +5094,16 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="19.4609375" customWidth="1"/>
-    <col min="5" max="5" width="15.4609375" customWidth="1"/>
-    <col min="6" max="6" width="14.4609375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5065,7 +5123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5085,7 +5143,7 @@
         <v>0.33348333835601807</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -5106,7 +5164,7 @@
         <v>0.37000000476837158</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>3</v>
@@ -5127,7 +5185,7 @@
         <v>0.36170417070388794</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5148,7 +5206,7 @@
         <v>0.32104000449180603</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5169,7 +5227,7 @@
         <v>0.31000000238418579</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5190,7 +5248,7 @@
         <v>0.51483333110809326</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5211,7 +5269,7 @@
         <v>0.30000001192092896</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5232,7 +5290,7 @@
         <v>0.42490002512931824</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5253,7 +5311,7 @@
         <v>0.28841832280158997</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5274,7 +5332,7 @@
         <v>0.3791700005531311</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5295,7 +5353,7 @@
         <v>0.29057666659355164</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5316,7 +5374,7 @@
         <v>0.28915256261825562</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5337,7 +5395,7 @@
         <v>0.3107999861240387</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5358,7 +5416,7 @@
         <v>0.34881249070167542</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5379,7 +5437,7 @@
         <v>0.23142917454242706</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5400,7 +5458,7 @@
         <v>0.3616899847984314</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5421,7 +5479,7 @@
         <v>0.41999998688697815</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5442,7 +5500,7 @@
         <v>0.28999999165534973</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5463,7 +5521,7 @@
         <v>0.41097500920295715</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5484,7 +5542,7 @@
         <v>0.37830832600593567</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5505,7 +5563,7 @@
         <v>0.40432998538017273</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5526,7 +5584,7 @@
         <v>0.2985483705997467</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5547,7 +5605,7 @@
         <v>0.33543330430984497</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5568,7 +5626,7 @@
         <v>0.31999999284744263</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5589,7 +5647,7 @@
         <v>0.21267999708652496</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5610,7 +5668,7 @@
         <v>0.3810800313949585</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -5631,7 +5689,7 @@
         <v>0.38023334741592407</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -5652,7 +5710,7 @@
         <v>0.33000001311302185</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5673,7 +5731,7 @@
         <v>0.40999999642372131</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -5694,7 +5752,7 @@
         <v>0.31952998042106628</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -5715,7 +5773,7 @@
         <v>0.3746350109577179</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -5736,7 +5794,7 @@
         <v>0.37881171703338623</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -5757,7 +5815,7 @@
         <v>0.34782081842422485</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -5778,7 +5836,7 @@
         <v>0.34826415777206421</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -5799,7 +5857,7 @@
         <v>0.34999999403953552</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5820,7 +5878,7 @@
         <v>0.40173998475074768</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -5841,7 +5899,7 @@
         <v>0.38999998569488525</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -5862,7 +5920,7 @@
         <v>0.27316248416900635</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -5883,7 +5941,7 @@
         <v>0.31000000238418579</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -5904,7 +5962,7 @@
         <v>0.34770500659942627</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -5925,7 +5983,7 @@
         <v>0.39380002021789551</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -5946,7 +6004,7 @@
         <v>0.34237498044967651</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5967,7 +6025,7 @@
         <v>0.22023668885231018</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5988,7 +6046,7 @@
         <v>0.33000001311302185</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6009,7 +6067,7 @@
         <v>0.47469416260719299</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -6030,7 +6088,7 @@
         <v>0.46456664800643921</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -6051,7 +6109,7 @@
         <v>0.38186249136924744</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -6072,7 +6130,7 @@
         <v>0.23999999463558197</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -6093,7 +6151,7 @@
         <v>0.33405837416648865</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -6114,7 +6172,7 @@
         <v>0.37000000476837158</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -6135,7 +6193,7 @@
         <v>0.36533331871032715</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -6156,7 +6214,7 @@
         <v>0.32246503233909607</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -6177,7 +6235,7 @@
         <v>0.31000000238418579</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -6198,7 +6256,7 @@
         <v>0.51675999164581299</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -6219,7 +6277,7 @@
         <v>0.30000001192092896</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -6240,7 +6298,7 @@
         <v>0.4280666708946228</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -6261,7 +6319,7 @@
         <v>0.28903165459632874</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -6282,7 +6340,7 @@
         <v>0.44398999214172363</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -6303,7 +6361,7 @@
         <v>0.29264000058174133</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -6324,7 +6382,7 @@
         <v>0.33629503846168518</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -6345,7 +6403,7 @@
         <v>0.31369581818580627</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -6366,7 +6424,7 @@
         <v>0.41231250762939453</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -6387,7 +6445,7 @@
         <v>0.23418751358985901</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -6408,7 +6466,7 @@
         <v>0.3650033175945282</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -6429,7 +6487,7 @@
         <v>0.41999998688697815</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -6450,7 +6508,7 @@
         <v>0.28999999165534973</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ref="A68:A131" si="1">A67+1</f>
         <v>67</v>
@@ -6471,7 +6529,7 @@
         <v>0.47782915830612183</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -6492,7 +6550,7 @@
         <v>0.37881499528884888</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -6513,7 +6571,7 @@
         <v>0.46110999584197998</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -6534,7 +6592,7 @@
         <v>0.29927504062652588</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -6555,7 +6613,7 @@
         <v>0.40702998638153076</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -6576,7 +6634,7 @@
         <v>0.31999999284744263</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -6597,7 +6655,7 @@
         <v>0.22386249899864197</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -6618,7 +6676,7 @@
         <v>0.38310334086418152</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -6639,7 +6697,7 @@
         <v>0.4000299870967865</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -6660,7 +6718,7 @@
         <v>0.33000001311302185</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -6681,7 +6739,7 @@
         <v>0.40999999642372131</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -6702,7 +6760,7 @@
         <v>0.32187998294830322</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -6723,7 +6781,7 @@
         <v>0.37654998898506165</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -6744,7 +6802,7 @@
         <v>0.37935838103294373</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -6765,7 +6823,7 @@
         <v>0.35024583339691162</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -6786,7 +6844,7 @@
         <v>0.34923169016838074</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -6807,7 +6865,7 @@
         <v>0.40999999642372131</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -6828,7 +6886,7 @@
         <v>0.40472498536109924</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -6849,7 +6907,7 @@
         <v>0.39400002360343933</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -6870,7 +6928,7 @@
         <v>0.27627500891685486</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -6891,7 +6949,7 @@
         <v>0.38999998569488525</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -6912,7 +6970,7 @@
         <v>0.35092499852180481</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -6933,7 +6991,7 @@
         <v>0.4075433611869812</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -6954,7 +7012,7 @@
         <v>0.34388500452041626</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -6975,7 +7033,7 @@
         <v>0.22229002416133881</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -6996,7 +7054,7 @@
         <v>0.37403666973114014</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -7017,7 +7075,7 @@
         <v>0.49959415197372437</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -7038,7 +7096,7 @@
         <v>0.46700417995452881</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -7059,7 +7117,7 @@
         <v>0.38458752632141113</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -7080,7 +7138,7 @@
         <v>0.23999999463558197</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -7101,7 +7159,7 @@
         <v>0.33460670709609985</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -7122,7 +7180,7 @@
         <v>0.37000000476837158</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -7143,7 +7201,7 @@
         <v>0.36675000190734863</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -7164,7 +7222,7 @@
         <v>0.32706502079963684</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -7185,7 +7243,7 @@
         <v>0.36000001430511475</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -7206,7 +7264,7 @@
         <v>0.52142667770385742</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -7227,7 +7285,7 @@
         <v>0.30000001192092896</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -7248,7 +7306,7 @@
         <v>0.46322917938232422</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -7269,7 +7327,7 @@
         <v>0.28949916362762451</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -7290,7 +7348,7 @@
         <v>0.46849668025970459</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -7311,7 +7369,7 @@
         <v>0.32963332533836365</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -7332,7 +7390,7 @@
         <v>0.43248507380485535</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -7353,7 +7411,7 @@
         <v>0.31627500057220459</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -7374,7 +7432,7 @@
         <v>0.44799330830574036</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -7395,7 +7453,7 @@
         <v>0.23638750612735748</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -7416,7 +7474,7 @@
         <v>0.36772668361663818</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -7437,7 +7495,7 @@
         <v>0.41999998688697815</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -7458,7 +7516,7 @@
         <v>0.28999999165534973</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -7479,7 +7537,7 @@
         <v>0.50287497043609619</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -7500,7 +7558,7 @@
         <v>0.37966999411582947</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -7521,7 +7579,7 @@
         <v>0.47762000560760498</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -7542,7 +7600,7 @@
         <v>0.29990586638450623</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -7563,7 +7621,7 @@
         <v>0.41186001896858215</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -7584,7 +7642,7 @@
         <v>0.31999999284744263</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -7605,7 +7663,7 @@
         <v>0.20812499523162842</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -7626,7 +7684,7 @@
         <v>0.38505333662033081</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -7647,7 +7705,7 @@
         <v>0.43678665161132813</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -7668,7 +7726,7 @@
         <v>0.33000001311302185</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -7689,7 +7747,7 @@
         <v>0.40999999642372131</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -7710,7 +7768,7 @@
         <v>0.366120845079422</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>127</v>
@@ -7731,7 +7789,7 @@
         <v>0.38210999965667725</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>128</v>
@@ -7752,7 +7810,7 @@
         <v>0.3801192045211792</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>129</v>
@@ -7773,7 +7831,7 @@
         <v>0.35174167156219482</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="1"/>
         <v>130</v>
@@ -7794,7 +7852,7 @@
         <v>0.37917163968086243</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ref="A132:A195" si="2">A131+1</f>
         <v>131</v>
@@ -7815,7 +7873,7 @@
         <v>0.43000000715255737</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -7836,7 +7894,7 @@
         <v>0.40680500864982605</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -7857,7 +7915,7 @@
         <v>0.40999999642372131</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -7878,7 +7936,7 @@
         <v>0.27899166941642761</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -7899,7 +7957,7 @@
         <v>0.38999998569488525</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -7920,7 +7978,7 @@
         <v>0.37681332230567932</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -7941,7 +7999,7 @@
         <v>0.41264998912811279</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -7962,7 +8020,7 @@
         <v>0.35451248288154602</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -7983,7 +8041,7 @@
         <v>0.22459001839160919</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -8004,7 +8062,7 @@
         <v>0.37782999873161316</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -8025,7 +8083,7 @@
         <v>0.5668799877166748</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -8046,7 +8104,7 @@
         <v>0.47027915716171265</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -8067,7 +8125,7 @@
         <v>0.38914164900779724</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -8088,7 +8146,7 @@
         <v>0.23999999463558197</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -8109,7 +8167,7 @@
         <v>0.3352508544921875</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -8130,7 +8188,7 @@
         <v>0.41978001594543457</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -8151,7 +8209,7 @@
         <v>0.37027916312217712</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -8172,7 +8230,7 @@
         <v>0.33359000086784363</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -8193,7 +8251,7 @@
         <v>0.36000001430511475</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -8214,7 +8272,7 @@
         <v>0.52950000762939453</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -8235,7 +8293,7 @@
         <v>0.30000001192092896</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -8256,7 +8314,7 @@
         <v>0.46796250343322754</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -8277,7 +8335,7 @@
         <v>0.29049000144004822</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -8298,7 +8356,7 @@
         <v>0.50042331218719482</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -8319,7 +8377,7 @@
         <v>0.40436249971389771</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -8340,7 +8398,7 @@
         <v>0.43747007846832275</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -8361,7 +8419,7 @@
         <v>0.37247917056083679</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -8382,7 +8440,7 @@
         <v>0.45249998569488525</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -8403,7 +8461,7 @@
         <v>0.23994167149066925</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -8424,7 +8482,7 @@
         <v>0.3705633282661438</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -8445,7 +8503,7 @@
         <v>0.41999998688697815</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -8466,7 +8524,7 @@
         <v>0.28999999165534973</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -8487,7 +8545,7 @@
         <v>0.50899165868759155</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -8508,7 +8566,7 @@
         <v>0.40051665902137756</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -8529,7 +8587,7 @@
         <v>0.62880003452301025</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -8550,7 +8608,7 @@
         <v>0.30041086673736572</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -8571,7 +8629,7 @@
         <v>0.41467997431755066</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -8592,7 +8650,7 @@
         <v>0.31999999284744263</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -8613,7 +8671,7 @@
         <v>0.21083000302314758</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -8634,7 +8692,7 @@
         <v>0.50839000940322876</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -8655,7 +8713,7 @@
         <v>0.48305332660675049</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -8676,7 +8734,7 @@
         <v>0.33000001311302185</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -8697,7 +8755,7 @@
         <v>0.43000000715255737</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -8718,7 +8776,7 @@
         <v>0.37078750133514404</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -8739,7 +8797,7 @@
         <v>0.44336003065109253</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -8760,7 +8818,7 @@
         <v>0.38112002611160278</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -8781,7 +8839,7 @@
         <v>0.39772918820381165</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -8802,7 +8860,7 @@
         <v>0.44155997037887573</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -8823,7 +8881,7 @@
         <v>0.43000000715255737</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -8844,7 +8902,7 @@
         <v>0.41105499863624573</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -8865,7 +8923,7 @@
         <v>0.40999999642372131</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -8886,7 +8944,7 @@
         <v>0.28345000743865967</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -8907,7 +8965,7 @@
         <v>0.45392501354217529</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -8928,7 +8986,7 @@
         <v>0.38406667113304138</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -8949,7 +9007,7 @@
         <v>0.48537498712539673</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -8970,7 +9028,7 @@
         <v>0.45515415072441101</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -8991,7 +9049,7 @@
         <v>0.23817920684814453</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -9012,7 +9070,7 @@
         <v>0.38087999820709229</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -9033,7 +9091,7 @@
         <v>0.57273668050765991</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -9054,7 +9112,7 @@
         <v>0.51837915182113647</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <f t="shared" si="2"/>
         <v>191</v>
@@ -9075,7 +9133,7 @@
         <v>0.39372500777244568</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" si="2"/>
         <v>192</v>
@@ -9096,7 +9154,7 @@
         <v>0.23999999463558197</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <f t="shared" si="2"/>
         <v>193</v>
@@ -9117,7 +9175,7 @@
         <v>0.33656001091003418</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" si="2"/>
         <v>194</v>
@@ -9138,7 +9196,7 @@
         <v>0.42423000931739807</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" ref="A196:A259" si="3">A195+1</f>
         <v>195</v>
@@ -9159,7 +9217,7 @@
         <v>0.37414166331291199</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -9180,7 +9238,7 @@
         <v>0.47268000245094299</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -9201,7 +9259,7 @@
         <v>0.36000001430511475</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -9222,7 +9280,7 @@
         <v>0.57849335670471191</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -9243,7 +9301,7 @@
         <v>0.30000001192092896</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -9264,7 +9322,7 @@
         <v>0.48748502135276794</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -9285,7 +9343,7 @@
         <v>0.29161751270294189</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -9306,7 +9364,7 @@
         <v>0.55979001522064209</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -9327,7 +9385,7 @@
         <v>0.40904581546783447</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -9348,7 +9406,7 @@
         <v>0.44123008847236633</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -9369,7 +9427,7 @@
         <v>0.37794166803359985</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -9390,7 +9448,7 @@
         <v>0.45677003264427185</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -9411,7 +9469,7 @@
         <v>0.24534165859222412</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -9432,7 +9490,7 @@
         <v>0.37524333596229553</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -9453,7 +9511,7 @@
         <v>0.4954083263874054</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -9474,7 +9532,7 @@
         <v>0.28999999165534973</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -9495,7 +9553,7 @@
         <v>0.51590418815612793</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -9516,7 +9574,7 @@
         <v>0.42143586277961731</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -9537,7 +9595,7 @@
         <v>0.63493001461029053</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -9558,7 +9616,7 @@
         <v>0.30118504166603088</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -9579,7 +9637,7 @@
         <v>0.42041501402854919</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -9600,7 +9658,7 @@
         <v>0.31999999284744263</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -9621,7 +9679,7 @@
         <v>0.21381999552249908</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -9642,7 +9700,7 @@
         <v>0.51342999935150146</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -9663,7 +9721,7 @@
         <v>0.4866766631603241</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -9684,7 +9742,7 @@
         <v>0.33000001311302185</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -9705,7 +9763,7 @@
         <v>0.43000000715255737</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -9726,7 +9784,7 @@
         <v>0.37546664476394653</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -9747,7 +9805,7 @@
         <v>0.45194500684738159</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -9768,7 +9826,7 @@
         <v>0.40266087651252747</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -9789,7 +9847,7 @@
         <v>0.40459582209587097</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -9810,7 +9868,7 @@
         <v>0.44632330536842346</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -9831,7 +9889,7 @@
         <v>0.43000000715255737</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -9852,7 +9910,7 @@
         <v>0.4174950122833252</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -9873,7 +9931,7 @@
         <v>0.43000000715255737</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -9894,7 +9952,7 @@
         <v>0.28982916474342346</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -9915,7 +9973,7 @@
         <v>0.44409331679344177</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -9936,7 +9994,7 @@
         <v>0.39349997043609619</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -9957,7 +10015,7 @@
         <v>0.50524497032165527</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -9978,7 +10036,7 @@
         <v>0.46255415678024292</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -9999,7 +10057,7 @@
         <v>0.2453000396490097</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -10020,7 +10078,7 @@
         <v>0.38514667749404907</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -10041,7 +10099,7 @@
         <v>0.58377081155776978</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -10062,7 +10120,7 @@
         <v>0.53288334608078003</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -10083,7 +10141,7 @@
         <v>0.41281497478485107</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -10104,7 +10162,7 @@
         <v>0.23999999463558197</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -10125,7 +10183,7 @@
         <v>0.33756920695304871</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -10146,7 +10204,7 @@
         <v>0.42771667242050171</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -10167,7 +10225,7 @@
         <v>0.38040831685066223</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -10188,7 +10246,7 @@
         <v>0.61632996797561646</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -10209,7 +10267,7 @@
         <v>0.36000001430511475</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -10230,7 +10288,7 @@
         <v>0.69616669416427612</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -10251,7 +10309,7 @@
         <v>0.30000001192092896</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -10272,7 +10330,7 @@
         <v>0.49524003267288208</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -10293,7 +10351,7 @@
         <v>0.29237416386604309</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -10314,7 +10372,7 @@
         <v>0.53119337558746338</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -10335,7 +10393,7 @@
         <v>0.41155418753623962</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -10356,7 +10414,7 @@
         <v>0.55072510242462158</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -10377,7 +10435,7 @@
         <v>0.38185831904411316</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -10398,7 +10456,7 @@
         <v>0.45829665660858154</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <f t="shared" si="3"/>
         <v>255</v>
@@ -10419,7 +10477,7 @@
         <v>0.24922916293144226</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <f t="shared" si="3"/>
         <v>256</v>
@@ -10440,7 +10498,7 @@
         <v>0.37787333130836487</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <f t="shared" si="3"/>
         <v>257</v>
@@ -10461,7 +10519,7 @@
         <v>0.49937915802001953</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <f t="shared" si="3"/>
         <v>258</v>
@@ -10482,7 +10540,7 @@
         <v>0.28999999165534973</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <f t="shared" ref="A260:A323" si="4">A259+1</f>
         <v>259</v>
@@ -10503,7 +10561,7 @@
         <v>0.54182499647140503</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -10524,7 +10582,7 @@
         <v>0.42194831371307373</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -10545,7 +10603,7 @@
         <v>0.64143997430801392</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -10566,7 +10624,7 @@
         <v>0.30180838704109192</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -10587,7 +10645,7 @@
         <v>0.42491999268531799</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -10608,7 +10666,7 @@
         <v>0.33500000834465027</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -10629,7 +10687,7 @@
         <v>0.21670499444007874</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -10650,7 +10708,7 @@
         <v>0.55200499296188354</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -10671,7 +10729,7 @@
         <v>0.48941335082054138</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -10692,7 +10750,7 @@
         <v>0.38666665554046631</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -10713,7 +10771,7 @@
         <v>0.43000000715255737</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -10734,7 +10792,7 @@
         <v>0.38067916035652161</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -10755,7 +10813,7 @@
         <v>0.61862999200820923</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -10776,7 +10834,7 @@
         <v>0.5637933611869812</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -10797,7 +10855,7 @@
         <v>0.40898334980010986</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -10818,7 +10876,7 @@
         <v>0.44914001226425171</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -10839,7 +10897,7 @@
         <v>0.43666663765907288</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -10860,7 +10918,7 @@
         <v>0.42386001348495483</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -10881,7 +10939,7 @@
         <v>0.52999997138977051</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -10902,7 +10960,7 @@
         <v>0.29370832443237305</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -10923,7 +10981,7 @@
         <v>0.44821998476982117</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -10944,7 +11002,7 @@
         <v>0.39911997318267822</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -10965,7 +11023,7 @@
         <v>0.51193499565124512</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -10986,7 +11044,7 @@
         <v>0.47038334608078003</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -11007,7 +11065,7 @@
         <v>0.25160419940948486</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -11028,7 +11086,7 @@
         <v>0.38897335529327393</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -11049,7 +11107,7 @@
         <v>0.62129247188568115</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -11070,7 +11128,7 @@
         <v>0.53773748874664307</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -11091,7 +11149,7 @@
         <v>0.41616001725196838</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -11112,7 +11170,7 @@
         <v>0.2800000011920929</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -11133,7 +11191,7 @@
         <v>0.35937836766242981</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -11154,7 +11212,7 @@
         <v>0.45541998744010925</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -11175,7 +11233,7 @@
         <v>0.43182915449142456</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -11196,7 +11254,7 @@
         <v>0.64716500043869019</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -11217,7 +11275,7 @@
         <v>0.37999999523162842</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -11238,7 +11296,7 @@
         <v>0.72420001029968262</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -11259,7 +11317,7 @@
         <v>0.39083334803581238</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -11280,7 +11338,7 @@
         <v>0.62795001268386841</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -11301,7 +11359,7 @@
         <v>0.31382918357849121</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -11322,7 +11380,7 @@
         <v>0.56058329343795776</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -11343,7 +11401,7 @@
         <v>0.43868333101272583</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -11364,7 +11422,7 @@
         <v>0.58123010396957397</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -11385,7 +11443,7 @@
         <v>0.40789586305618286</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -11406,7 +11464,7 @@
         <v>0.4847966730594635</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -11427,7 +11485,7 @@
         <v>0.2874549925327301</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -11448,7 +11506,7 @@
         <v>0.44289001822471619</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -11469,7 +11527,7 @@
         <v>0.5251583456993103</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -11490,7 +11548,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -11511,7 +11569,7 @@
         <v>0.58643335103988647</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -11532,7 +11590,7 @@
         <v>0.44381168484687805</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -11553,7 +11611,7 @@
         <v>0.67513662576675415</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <f t="shared" si="4"/>
         <v>310</v>
@@ -11574,7 +11632,7 @@
         <v>0.32311835885047913</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -11595,7 +11653,7 @@
         <v>0.45175498723983765</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <f t="shared" si="4"/>
         <v>312</v>
@@ -11616,7 +11674,7 @@
         <v>0.36000001430511475</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -11637,7 +11695,7 @@
         <v>0.24057501554489136</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <f t="shared" si="4"/>
         <v>314</v>
@@ -11658,7 +11716,7 @@
         <v>0.57900500297546387</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -11679,7 +11737,7 @@
         <v>0.53097915649414063</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <f t="shared" si="4"/>
         <v>316</v>
@@ -11700,7 +11758,7 @@
         <v>0.43000000715255737</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
         <f t="shared" si="4"/>
         <v>317</v>
@@ -11721,7 +11779,7 @@
         <v>0.57999998331069946</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -11742,7 +11800,7 @@
         <v>0.40867915749549866</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <f t="shared" si="4"/>
         <v>319</v>
@@ -11763,7 +11821,7 @@
         <v>0.64420503377914429</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <f t="shared" si="4"/>
         <v>320</v>
@@ -11784,7 +11842,7 @@
         <v>0.64625000953674316</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <f t="shared" si="4"/>
         <v>321</v>
@@ -11805,7 +11863,7 @@
         <v>0.43550834059715271</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <f t="shared" si="4"/>
         <v>322</v>
@@ -11826,7 +11884,7 @@
         <v>0.49065417051315308</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <f t="shared" ref="A324:A387" si="5">A323+1</f>
         <v>323</v>
@@ -11847,7 +11905,7 @@
         <v>0.46000000834465027</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <f t="shared" si="5"/>
         <v>324</v>
@@ -11868,7 +11926,7 @@
         <v>0.45294499397277832</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <f t="shared" si="5"/>
         <v>325</v>
@@ -11889,7 +11947,7 @@
         <v>0.55000001192092896</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -11910,7 +11968,7 @@
         <v>0.32101249694824219</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
         <f t="shared" si="5"/>
         <v>327</v>
@@ -11931,7 +11989,7 @@
         <v>0.47294998168945313</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -11952,7 +12010,7 @@
         <v>0.43202000856399536</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -11973,7 +12031,7 @@
         <v>0.69830000400543213</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -11994,7 +12052,7 @@
         <v>0.49323749542236328</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -12015,7 +12073,7 @@
         <v>0.27932503819465637</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -12036,7 +12094,7 @@
         <v>0.41384997963905334</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
         <f t="shared" si="5"/>
         <v>333</v>
@@ -12057,7 +12115,7 @@
         <v>0.65284836292266846</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -12078,7 +12136,7 @@
         <v>0.56435418128967285</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
         <f t="shared" si="5"/>
         <v>335</v>
@@ -12099,7 +12157,7 @@
         <v>0.44119498133659363</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -12120,7 +12178,7 @@
         <v>0.30000001192092896</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -12141,7 +12199,7 @@
         <v>0.38080337643623352</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -12162,7 +12220,7 @@
         <v>0.50940835475921631</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <f t="shared" si="5"/>
         <v>339</v>
@@ -12183,7 +12241,7 @@
         <v>0.46807083487510681</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -12204,7 +12262,7 @@
         <v>0.69263666868209839</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <f t="shared" si="5"/>
         <v>341</v>
@@ -12225,7 +12283,7 @@
         <v>0.40000000596046448</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -12246,7 +12304,7 @@
         <v>0.75593000650405884</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
         <f t="shared" si="5"/>
         <v>343</v>
@@ -12267,7 +12325,7 @@
         <v>0.43999999761581421</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
         <f t="shared" si="5"/>
         <v>344</v>
@@ -12288,7 +12346,7 @@
         <v>0.65354502201080322</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
         <f t="shared" si="5"/>
         <v>345</v>
@@ -12309,7 +12367,7 @@
         <v>0.33519917726516724</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
         <f t="shared" si="5"/>
         <v>346</v>
@@ -12330,7 +12388,7 @@
         <v>0.63401335477828979</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
         <f t="shared" si="5"/>
         <v>347</v>
@@ -12351,7 +12409,7 @@
         <v>0.46476665139198303</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -12372,7 +12430,7 @@
         <v>0.61057507991790771</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <f t="shared" si="5"/>
         <v>349</v>
@@ -12393,7 +12451,7 @@
         <v>0.43291667103767395</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
         <f t="shared" si="5"/>
         <v>350</v>
@@ -12414,7 +12472,7 @@
         <v>0.50967997312545776</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
         <f t="shared" si="5"/>
         <v>351</v>
@@ -12435,7 +12493,7 @@
         <v>0.31483998894691467</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -12456,7 +12514,7 @@
         <v>0.47179999947547913</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
         <f t="shared" si="5"/>
         <v>353</v>
@@ -12477,7 +12535,7 @@
         <v>0.54932081699371338</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -12498,7 +12556,7 @@
         <v>0.47880837321281433</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
         <f t="shared" si="5"/>
         <v>355</v>
@@ -12519,7 +12577,7 @@
         <v>0.68433499336242676</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
         <f t="shared" si="5"/>
         <v>356</v>
@@ -12540,7 +12598,7 @@
         <v>0.46563082933425903</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
         <f t="shared" si="5"/>
         <v>357</v>
@@ -12561,7 +12619,7 @@
         <v>0.77365756034851074</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -12582,7 +12640,7 @@
         <v>0.34427252411842346</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
         <f t="shared" si="5"/>
         <v>359</v>
@@ -12603,7 +12661,7 @@
         <v>0.48243001103401184</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -12624,7 +12682,7 @@
         <v>0.37999999523162842</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
         <f t="shared" si="5"/>
         <v>361</v>
@@ -12645,7 +12703,7 @@
         <v>0.30738335847854614</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
         <f t="shared" si="5"/>
         <v>362</v>
@@ -12666,7 +12724,7 @@
         <v>0.59423500299453735</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
         <f t="shared" si="5"/>
         <v>363</v>
@@ -12687,7 +12745,7 @@
         <v>0.55699586868286133</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
         <f t="shared" si="5"/>
         <v>364</v>
@@ -12708,7 +12766,7 @@
         <v>0.44999998807907104</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
         <f t="shared" si="5"/>
         <v>365</v>
@@ -12729,7 +12787,7 @@
         <v>0.73960912227630615</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
         <f t="shared" si="5"/>
         <v>366</v>
@@ -12750,7 +12808,7 @@
         <v>0.43468335270881653</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368">
         <f t="shared" si="5"/>
         <v>367</v>
@@ -12771,7 +12829,7 @@
         <v>0.68688499927520752</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369">
         <f t="shared" si="5"/>
         <v>368</v>
@@ -12792,7 +12850,7 @@
         <v>0.67063665390014648</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370">
         <f t="shared" si="5"/>
         <v>369</v>
@@ -12813,7 +12871,7 @@
         <v>0.46064582467079163</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371">
         <f t="shared" si="5"/>
         <v>370</v>
@@ -12834,7 +12892,7 @@
         <v>0.5187416672706604</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372">
         <f t="shared" si="5"/>
         <v>371</v>
@@ -12855,7 +12913,7 @@
         <v>0.47999998927116394</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373">
         <f t="shared" si="5"/>
         <v>372</v>
@@ -12876,7 +12934,7 @@
         <v>0.60689663887023926</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374">
         <f t="shared" si="5"/>
         <v>373</v>
@@ -12897,7 +12955,7 @@
         <v>0.70622581243515015</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375">
         <f t="shared" si="5"/>
         <v>374</v>
@@ -12918,7 +12976,7 @@
         <v>0.34962502121925354</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376">
         <f t="shared" si="5"/>
         <v>375</v>
@@ -12939,7 +12997,7 @@
         <v>0.49923667311668396</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377">
         <f t="shared" si="5"/>
         <v>376</v>
@@ -12960,7 +13018,7 @@
         <v>0.464059978723526</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378">
         <f t="shared" si="5"/>
         <v>377</v>
@@ -12981,7 +13039,7 @@
         <v>0.72810995578765869</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379">
         <f t="shared" si="5"/>
         <v>378</v>
@@ -13002,7 +13060,7 @@
         <v>0.5529666543006897</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380">
         <f t="shared" si="5"/>
         <v>379</v>
@@ -13023,7 +13081,7 @@
         <v>0.30622503161430359</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381">
         <f t="shared" si="5"/>
         <v>380</v>
@@ -13044,7 +13102,7 @@
         <v>0.47035834193229675</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382">
         <f t="shared" si="5"/>
         <v>381</v>
@@ -13065,7 +13123,7 @@
         <v>0.68070578575134277</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383">
         <f t="shared" si="5"/>
         <v>382</v>
@@ -13086,7 +13144,7 @@
         <v>0.60545837879180908</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384">
         <f t="shared" si="5"/>
         <v>383</v>
@@ -13107,7 +13165,7 @@
         <v>0.46772000193595886</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385">
         <f t="shared" si="5"/>
         <v>384</v>
@@ -13128,7 +13186,7 @@
         <v>0.31999999284744263</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386">
         <f t="shared" si="5"/>
         <v>385</v>
@@ -13149,7 +13207,7 @@
         <v>0.39967671036720276</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387">
         <f t="shared" si="5"/>
         <v>386</v>
@@ -13170,7 +13228,7 @@
         <v>0.57825833559036255</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388">
         <f t="shared" ref="A388:A451" si="6">A387+1</f>
         <v>387</v>
@@ -13191,7 +13249,7 @@
         <v>0.48536249995231628</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389">
         <f t="shared" si="6"/>
         <v>388</v>
@@ -13212,7 +13270,7 @@
         <v>0.70729333162307739</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390">
         <f t="shared" si="6"/>
         <v>389</v>
@@ -13233,7 +13291,7 @@
         <v>0.41999998688697815</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391">
         <f t="shared" si="6"/>
         <v>390</v>
@@ -13254,7 +13312,7 @@
         <v>0.79163497686386108</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392">
         <f t="shared" si="6"/>
         <v>391</v>
@@ -13275,7 +13333,7 @@
         <v>0.46000000834465027</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393">
         <f t="shared" si="6"/>
         <v>392</v>
@@ -13296,7 +13354,7 @@
         <v>0.66728502511978149</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394">
         <f t="shared" si="6"/>
         <v>393</v>
@@ -13317,7 +13375,7 @@
         <v>0.35435500741004944</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395">
         <f t="shared" si="6"/>
         <v>394</v>
@@ -13338,7 +13396,7 @@
         <v>0.66934585571289063</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396">
         <f t="shared" si="6"/>
         <v>395</v>
@@ -13359,7 +13417,7 @@
         <v>0.47939583659172058</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397">
         <f t="shared" si="6"/>
         <v>396</v>
@@ -13380,7 +13438,7 @@
         <v>0.62551003694534302</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398">
         <f t="shared" si="6"/>
         <v>397</v>
@@ -13401,7 +13459,7 @@
         <v>0.45040416717529297</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399">
         <f t="shared" si="6"/>
         <v>398</v>
@@ -13422,7 +13480,7 @@
         <v>0.54267501831054688</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400">
         <f t="shared" si="6"/>
         <v>399</v>
@@ -13443,7 +13501,7 @@
         <v>0.33263000845909119</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401">
         <f t="shared" si="6"/>
         <v>400</v>
@@ -13464,7 +13522,7 @@
         <v>0.4866766631603241</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402">
         <f t="shared" si="6"/>
         <v>401</v>
@@ -13485,7 +13543,7 @@
         <v>0.69709581136703491</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403">
         <f t="shared" si="6"/>
         <v>402</v>
@@ -13506,7 +13564,7 @@
         <v>0.67073333263397217</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404">
         <f t="shared" si="6"/>
         <v>403</v>
@@ -13527,7 +13585,7 @@
         <v>0.70035499334335327</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405">
         <f t="shared" si="6"/>
         <v>404</v>
@@ -13548,7 +13606,7 @@
         <v>0.48469001054763794</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406">
         <f t="shared" si="6"/>
         <v>405</v>
@@ -13569,7 +13627,7 @@
         <v>0.84272414445877075</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407">
         <f t="shared" si="6"/>
         <v>406</v>
@@ -13590,7 +13648,7 @@
         <v>0.36356338858604431</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408">
         <f t="shared" si="6"/>
         <v>407</v>
@@ -13611,7 +13669,7 @@
         <v>0.51569247245788574</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409">
         <f t="shared" si="6"/>
         <v>408</v>
@@ -13632,7 +13690,7 @@
         <v>0.41154998540878296</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410">
         <f t="shared" si="6"/>
         <v>409</v>
@@ -13653,7 +13711,7 @@
         <v>0.32716000080108643</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411">
         <f t="shared" si="6"/>
         <v>410</v>
@@ -13674,7 +13732,7 @@
         <v>0.61198502779006958</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412">
         <f t="shared" si="6"/>
         <v>411</v>
@@ -13695,7 +13753,7 @@
         <v>0.57417500019073486</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413">
         <f t="shared" si="6"/>
         <v>412</v>
@@ -13716,7 +13774,7 @@
         <v>0.4699999988079071</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414">
         <f t="shared" si="6"/>
         <v>413</v>
@@ -13737,7 +13795,7 @@
         <v>0.73516499996185303</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415">
         <f t="shared" si="6"/>
         <v>414</v>
@@ -13758,7 +13816,7 @@
         <v>0.45015835762023926</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416">
         <f t="shared" si="6"/>
         <v>415</v>
@@ -13779,7 +13837,7 @@
         <v>0.7048724889755249</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417">
         <f t="shared" si="6"/>
         <v>416</v>
@@ -13800,7 +13858,7 @@
         <v>0.70306336879730225</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418">
         <f t="shared" si="6"/>
         <v>417</v>
@@ -13821,7 +13879,7 @@
         <v>0.50753748416900635</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419">
         <f t="shared" si="6"/>
         <v>418</v>
@@ -13842,7 +13900,7 @@
         <v>0.5354917049407959</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420">
         <f t="shared" si="6"/>
         <v>419</v>
@@ -13863,7 +13921,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421">
         <f t="shared" si="6"/>
         <v>420</v>
@@ -13884,7 +13942,7 @@
         <v>0.63108503818511963</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422">
         <f t="shared" si="6"/>
         <v>421</v>
@@ -13905,7 +13963,7 @@
         <v>0.7135966420173645</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423">
         <f t="shared" si="6"/>
         <v>422</v>
@@ -13926,7 +13984,7 @@
         <v>0.36467498540878296</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424">
         <f t="shared" si="6"/>
         <v>423</v>
@@ -13947,7 +14005,7 @@
         <v>0.51594334840774536</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425">
         <f t="shared" si="6"/>
         <v>424</v>
@@ -13968,7 +14026,7 @@
         <v>0.47660666704177856</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426">
         <f t="shared" si="6"/>
         <v>425</v>
@@ -13989,7 +14047,7 @@
         <v>0.74314498901367188</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427">
         <f t="shared" si="6"/>
         <v>426</v>
@@ -14010,7 +14068,7 @@
         <v>0.56913751363754272</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428">
         <f t="shared" si="6"/>
         <v>427</v>
@@ -14031,7 +14089,7 @@
         <v>0.32500004768371582</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429">
         <f t="shared" si="6"/>
         <v>428</v>
@@ -14052,7 +14110,7 @@
         <v>0.50259166955947876</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430">
         <f t="shared" si="6"/>
         <v>429</v>
@@ -14073,7 +14131,7 @@
         <v>0.70035582780838013</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431">
         <f t="shared" si="6"/>
         <v>430</v>
@@ -14094,7 +14152,7 @@
         <v>0.69265419244766235</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432">
         <f t="shared" si="6"/>
         <v>431</v>
@@ -14115,7 +14173,7 @@
         <v>0.48388499021530151</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433">
         <f t="shared" si="6"/>
         <v>432</v>
@@ -14136,7 +14194,7 @@
         <v>0.34000000357627869</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434">
         <f t="shared" si="6"/>
         <v>433</v>
@@ -14157,7 +14215,7 @@
         <v>0.41883918642997742</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435">
         <f t="shared" si="6"/>
         <v>434</v>
@@ -14178,7 +14236,7 @@
         <v>0.63881665468215942</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436">
         <f t="shared" si="6"/>
         <v>435</v>
@@ -14199,7 +14257,7 @@
         <v>0.50128334760665894</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437">
         <f t="shared" si="6"/>
         <v>436</v>
@@ -14220,7 +14278,7 @@
         <v>0.73505330085754395</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438">
         <f t="shared" si="6"/>
         <v>437</v>
@@ -14241,7 +14299,7 @@
         <v>0.43999999761581421</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439">
         <f t="shared" si="6"/>
         <v>438</v>
@@ -14262,7 +14320,7 @@
         <v>0.83223998546600342</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440">
         <f t="shared" si="6"/>
         <v>439</v>
@@ -14283,7 +14341,7 @@
         <v>0.47999998927116394</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441">
         <f t="shared" si="6"/>
         <v>440</v>
@@ -14304,7 +14362,7 @@
         <v>0.68255501985549927</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442">
         <f t="shared" si="6"/>
         <v>441</v>
@@ -14325,7 +14383,7 @@
         <v>0.37393000721931458</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443">
         <f t="shared" si="6"/>
         <v>442</v>
@@ -14346,7 +14404,7 @@
         <v>0.68791663646697998</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444">
         <f t="shared" si="6"/>
         <v>443</v>
@@ -14367,7 +14425,7 @@
         <v>0.4961249828338623</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445">
         <f t="shared" si="6"/>
         <v>444</v>
@@ -14388,7 +14446,7 @@
         <v>0.79034507274627686</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446">
         <f t="shared" si="6"/>
         <v>445</v>
@@ -14409,7 +14467,7 @@
         <v>0.46821251511573792</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447">
         <f t="shared" si="6"/>
         <v>446</v>
@@ -14430,7 +14488,7 @@
         <v>0.56157916784286499</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448">
         <f t="shared" si="6"/>
         <v>447</v>
@@ -14451,7 +14509,7 @@
         <v>0.35038003325462341</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449">
         <f t="shared" si="6"/>
         <v>448</v>
@@ -14472,7 +14530,7 @@
         <v>0.50258666276931763</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450">
         <f t="shared" si="6"/>
         <v>449</v>
@@ -14493,7 +14551,7 @@
         <v>0.84973746538162231</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451">
         <f t="shared" si="6"/>
         <v>450</v>
@@ -14514,7 +14572,7 @@
         <v>0.68752503395080566</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452">
         <f t="shared" ref="A452:A515" si="7">A451+1</f>
         <v>451</v>
@@ -14535,7 +14593,7 @@
         <v>0.71929001808166504</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453">
         <f t="shared" si="7"/>
         <v>452</v>
@@ -14556,7 +14614,7 @@
         <v>0.58780914545059204</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454">
         <f t="shared" si="7"/>
         <v>453</v>
@@ -14577,7 +14635,7 @@
         <v>0.8597608208656311</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455">
         <f t="shared" si="7"/>
         <v>454</v>
@@ -14598,7 +14656,7 @@
         <v>0.41318419575691223</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456">
         <f t="shared" si="7"/>
         <v>455</v>
@@ -14619,7 +14677,7 @@
         <v>0.52860498428344727</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457">
         <f t="shared" si="7"/>
         <v>456</v>
@@ -14640,7 +14698,7 @@
         <v>0.42104998230934143</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458">
         <f t="shared" si="7"/>
         <v>457</v>
@@ -14661,7 +14719,7 @@
         <v>0.34585335850715637</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459">
         <f t="shared" si="7"/>
         <v>458</v>
@@ -14682,7 +14740,7 @@
         <v>0.787850022315979</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460">
         <f t="shared" si="7"/>
         <v>459</v>
@@ -14703,7 +14761,7 @@
         <v>0.66512084007263184</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461">
         <f t="shared" si="7"/>
         <v>460</v>
@@ -14724,7 +14782,7 @@
         <v>0.49000000953674316</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462">
         <f t="shared" si="7"/>
         <v>461</v>
@@ -14745,7 +14803,7 @@
         <v>0.75145500898361206</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463">
         <f t="shared" si="7"/>
         <v>462</v>
@@ -14766,7 +14824,7 @@
         <v>0.53068751096725464</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464">
         <f t="shared" si="7"/>
         <v>463</v>
@@ -14787,7 +14845,7 @@
         <v>0.72325080633163452</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465">
         <f t="shared" si="7"/>
         <v>464</v>
@@ -14808,7 +14866,7 @@
         <v>0.88410669565200806</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466">
         <f t="shared" si="7"/>
         <v>465</v>
@@ -14829,7 +14887,7 @@
         <v>0.55688333511352539</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467">
         <f t="shared" si="7"/>
         <v>466</v>
@@ -14850,7 +14908,7 @@
         <v>0.55102914571762085</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468">
         <f t="shared" si="7"/>
         <v>467</v>
@@ -14871,7 +14929,7 @@
         <v>0.57833331823348999</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469">
         <f t="shared" si="7"/>
         <v>468</v>
@@ -14892,7 +14950,7 @@
         <v>0.64612001180648804</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470">
         <f t="shared" si="7"/>
         <v>469</v>
@@ -14913,7 +14971,7 @@
         <v>0.80994915962219238</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471">
         <f t="shared" si="7"/>
         <v>470</v>
@@ -14934,7 +14992,7 @@
         <v>0.37981250882148743</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472">
         <f t="shared" si="7"/>
         <v>471</v>
@@ -14955,7 +15013,7 @@
         <v>0.53355669975280762</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473">
         <f t="shared" si="7"/>
         <v>472</v>
@@ -14976,7 +15034,7 @@
         <v>0.49150002002716064</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474">
         <f t="shared" si="7"/>
         <v>473</v>
@@ -14997,7 +15055,7 @@
         <v>0.75917506217956543</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475">
         <f t="shared" si="7"/>
         <v>474</v>
@@ -15018,7 +15076,7 @@
         <v>0.58765000104904175</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476">
         <f t="shared" si="7"/>
         <v>475</v>
@@ -15039,7 +15097,7 @@
         <v>0.3435417115688324</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477">
         <f t="shared" si="7"/>
         <v>476</v>
@@ -15060,7 +15118,7 @@
         <v>0.51994585990905762</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478">
         <f t="shared" si="7"/>
         <v>477</v>
@@ -15081,7 +15139,7 @@
         <v>0.93528914451599121</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479">
         <f t="shared" si="7"/>
         <v>478</v>
@@ -15102,7 +15160,7 @@
         <v>0.71204167604446411</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480">
         <f t="shared" si="7"/>
         <v>479</v>
@@ -15123,7 +15181,7 @@
         <v>0.50240498781204224</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481">
         <f t="shared" si="7"/>
         <v>480</v>
@@ -15144,7 +15202,7 @@
         <v>0.36000001430511475</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482">
         <f t="shared" si="7"/>
         <v>481</v>
@@ -15165,7 +15223,7 @@
         <v>0.41904670000076294</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483">
         <f t="shared" si="7"/>
         <v>482</v>
@@ -15186,7 +15244,7 @@
         <v>0.6385917067527771</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484">
         <f t="shared" si="7"/>
         <v>483</v>
@@ -15207,7 +15265,7 @@
         <v>0.74790823459625244</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485">
         <f t="shared" si="7"/>
         <v>484</v>
@@ -15228,7 +15286,7 @@
         <v>0.74771332740783691</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486">
         <f t="shared" si="7"/>
         <v>485</v>
@@ -15249,7 +15307,7 @@
         <v>0.43999999761581421</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487">
         <f t="shared" si="7"/>
         <v>486</v>
@@ -15270,7 +15328,7 @@
         <v>0.86355501413345337</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488">
         <f t="shared" si="7"/>
         <v>487</v>
@@ -15291,7 +15349,7 @@
         <v>0.47999998927116394</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489">
         <f t="shared" si="7"/>
         <v>488</v>
@@ -15312,7 +15370,7 @@
         <v>0.68525505065917969</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490">
         <f t="shared" si="7"/>
         <v>489</v>
@@ -15333,7 +15391,7 @@
         <v>0.37431415915489197</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491">
         <f t="shared" si="7"/>
         <v>490</v>
@@ -15354,7 +15412,7 @@
         <v>0.69089996814727783</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492">
         <f t="shared" si="7"/>
         <v>491</v>
@@ -15375,7 +15433,7 @@
         <v>0.60554170608520508</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493">
         <f t="shared" si="7"/>
         <v>492</v>
@@ -15396,7 +15454,7 @@
         <v>0.79234504699707031</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494">
         <f t="shared" si="7"/>
         <v>493</v>
@@ -15417,7 +15475,7 @@
         <v>0.4685874879360199</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495">
         <f t="shared" si="7"/>
         <v>494</v>
@@ -15438,7 +15496,7 @@
         <v>0.56343334913253784</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496">
         <f t="shared" si="7"/>
         <v>495</v>
@@ -15459,7 +15517,7 @@
         <v>0.35263001918792725</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497">
         <f t="shared" si="7"/>
         <v>496</v>
@@ -15480,7 +15538,7 @@
         <v>0.50453668832778931</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498">
         <f t="shared" si="7"/>
         <v>497</v>
@@ -15501,7 +15559,7 @@
         <v>0.85338330268859863</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499">
         <f t="shared" si="7"/>
         <v>498</v>
@@ -15522,7 +15580,7 @@
         <v>0.688587486743927</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500">
         <f t="shared" si="7"/>
         <v>499</v>
@@ -15543,7 +15601,7 @@
         <v>0.72163999080657959</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501">
         <f t="shared" si="7"/>
         <v>500</v>
@@ -15564,7 +15622,7 @@
         <v>1.1263300180435181</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502">
         <f t="shared" si="7"/>
         <v>501</v>
@@ -15585,7 +15643,7 @@
         <v>0.86415338516235352</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503">
         <f t="shared" si="7"/>
         <v>502</v>
@@ -15606,7 +15664,7 @@
         <v>0.42388421297073364</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504">
         <f t="shared" si="7"/>
         <v>503</v>
@@ -15627,7 +15685,7 @@
         <v>0.53071081638336182</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505">
         <f t="shared" si="7"/>
         <v>504</v>
@@ -15648,7 +15706,7 @@
         <v>0.41999998688697815</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506">
         <f t="shared" si="7"/>
         <v>505</v>
@@ -15669,7 +15727,7 @@
         <v>0.34769001603126526</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507">
         <f t="shared" si="7"/>
         <v>506</v>
@@ -15690,7 +15748,7 @@
         <v>0.78882002830505371</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508">
         <f t="shared" si="7"/>
         <v>507</v>
@@ -15711,7 +15769,7 @@
         <v>0.66675001382827759</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509">
         <f t="shared" si="7"/>
         <v>508</v>
@@ -15732,7 +15790,7 @@
         <v>0.49000000953674316</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510">
         <f t="shared" si="7"/>
         <v>509</v>
@@ -15753,7 +15811,7 @@
         <v>0.754954993724823</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511">
         <f t="shared" si="7"/>
         <v>510</v>
@@ -15774,7 +15832,7 @@
         <v>0.53387916088104248</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512">
         <f t="shared" si="7"/>
         <v>511</v>
@@ -15795,7 +15853,7 @@
         <v>0.72515833377838135</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513">
         <f t="shared" si="7"/>
         <v>512</v>
@@ -15816,7 +15874,7 @@
         <v>0.8853299617767334</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514">
         <f t="shared" si="7"/>
         <v>513</v>
@@ -15837,7 +15895,7 @@
         <v>0.55899584293365479</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515">
         <f t="shared" si="7"/>
         <v>514</v>
@@ -15858,7 +15916,7 @@
         <v>0.55101662874221802</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516">
         <f t="shared" ref="A516:A529" si="8">A515+1</f>
         <v>515</v>
@@ -15879,7 +15937,7 @@
         <v>0.62000000476837158</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517">
         <f t="shared" si="8"/>
         <v>516</v>
@@ -15900,7 +15958,7 @@
         <v>0.64971494674682617</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518">
         <f t="shared" si="8"/>
         <v>517</v>
@@ -15921,7 +15979,7 @@
         <v>0.9468424916267395</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519">
         <f t="shared" si="8"/>
         <v>518</v>
@@ -15942,7 +16000,7 @@
         <v>0.382770836353302</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520">
         <f t="shared" si="8"/>
         <v>519</v>
@@ -15963,7 +16021,7 @@
         <v>0.53463000059127808</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521">
         <f t="shared" si="8"/>
         <v>520</v>
@@ -15984,7 +16042,7 @@
         <v>0.49375331401824951</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522">
         <f t="shared" si="8"/>
         <v>521</v>
@@ -16005,7 +16063,7 @@
         <v>0.76219004392623901</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523">
         <f t="shared" si="8"/>
         <v>522</v>
@@ -16026,7 +16084,7 @@
         <v>0.59117913246154785</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524">
         <f t="shared" si="8"/>
         <v>523</v>
@@ -16047,7 +16105,7 @@
         <v>0.34436255693435669</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525">
         <f t="shared" si="8"/>
         <v>524</v>
@@ -16068,7 +16126,7 @@
         <v>0.52363753318786621</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526">
         <f t="shared" si="8"/>
         <v>525</v>
@@ -16089,7 +16147,7 @@
         <v>0.96142667531967163</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527">
         <f t="shared" si="8"/>
         <v>526</v>
@@ -16110,7 +16168,7 @@
         <v>0.71589583158493042</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528">
         <f t="shared" si="8"/>
         <v>527</v>
@@ -16131,7 +16189,7 @@
         <v>0.50425499677658081</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529">
         <f t="shared" si="8"/>
         <v>528</v>
@@ -16158,53 +16216,70 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9510CD8C-A12D-45F5-8E74-2E4DE72F9396}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B143"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>55.384599999999999</v>
       </c>
       <c r="B2">
         <v>97.179500000000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="7">
+        <f>AVERAGE(A2:A143)</f>
+        <v>54.263273239436643</v>
+      </c>
+      <c r="F2" s="7">
+        <f>AVERAGE(B2:B143)</f>
+        <v>47.832252816901374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>51.538499999999999</v>
       </c>
       <c r="B3">
         <v>96.025599999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="D3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="7">
+        <f>STDEV(A2:A143)</f>
+        <v>16.765142039116689</v>
+      </c>
+      <c r="F3" s="7">
+        <f>STDEV(B2:B143)</f>
+        <v>26.93540348693919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>46.153799999999997</v>
       </c>
@@ -16212,7 +16287,7 @@
         <v>94.487200000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>42.820500000000003</v>
       </c>
@@ -16220,7 +16295,7 @@
         <v>91.410300000000007</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>40.769199999999998</v>
       </c>
@@ -16228,7 +16303,7 @@
         <v>88.333299999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>38.7179</v>
       </c>
@@ -16236,7 +16311,7 @@
         <v>84.871799999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>35.640999999999998</v>
       </c>
@@ -16244,23 +16319,29 @@
         <v>79.871799999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>33.076900000000002</v>
       </c>
       <c r="B9">
         <v>77.564099999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="I9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>28.974399999999999</v>
       </c>
       <c r="B10">
         <v>74.487200000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="I10" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>26.1538</v>
       </c>
@@ -16268,7 +16349,7 @@
         <v>71.410300000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>23.076899999999998</v>
       </c>
@@ -16276,7 +16357,7 @@
         <v>66.410300000000007</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>22.307700000000001</v>
       </c>
@@ -16284,7 +16365,7 @@
         <v>61.794899999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>22.307700000000001</v>
       </c>
@@ -16292,7 +16373,7 @@
         <v>57.179499999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>23.333300000000001</v>
       </c>
@@ -16300,7 +16381,7 @@
         <v>52.948700000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>25.897400000000001</v>
       </c>
@@ -16308,7 +16389,7 @@
         <v>51.025599999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>29.487200000000001</v>
       </c>
@@ -16316,7 +16397,7 @@
         <v>51.025599999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>32.820500000000003</v>
       </c>
@@ -16324,7 +16405,7 @@
         <v>51.025599999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>35.384599999999999</v>
       </c>
@@ -16332,7 +16413,7 @@
         <v>51.410299999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>40.256399999999999</v>
       </c>
@@ -16340,7 +16421,7 @@
         <v>51.410299999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>44.102600000000002</v>
       </c>
@@ -16348,7 +16429,7 @@
         <v>52.948700000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>46.666699999999999</v>
       </c>
@@ -16356,7 +16437,7 @@
         <v>54.102600000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>50</v>
       </c>
@@ -16364,7 +16445,7 @@
         <v>55.256399999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>53.076900000000002</v>
       </c>
@@ -16372,7 +16453,7 @@
         <v>55.640999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>56.666699999999999</v>
       </c>
@@ -16380,7 +16461,7 @@
         <v>56.025599999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>59.230800000000002</v>
       </c>
@@ -16388,7 +16469,7 @@
         <v>57.948700000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>61.2821</v>
       </c>
@@ -16396,7 +16477,7 @@
         <v>62.179499999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>61.538499999999999</v>
       </c>
@@ -16404,7 +16485,7 @@
         <v>66.410300000000007</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>61.794899999999998</v>
       </c>
@@ -16412,7 +16493,7 @@
         <v>69.102599999999995</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>57.435899999999997</v>
       </c>
@@ -16420,7 +16501,7 @@
         <v>55.256399999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>54.8718</v>
       </c>
@@ -16428,7 +16509,7 @@
         <v>49.8718</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>52.564100000000003</v>
       </c>
@@ -16436,7 +16517,7 @@
         <v>46.025599999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>48.205100000000002</v>
       </c>
@@ -16444,7 +16525,7 @@
         <v>38.333300000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>49.487200000000001</v>
       </c>
@@ -16452,7 +16533,7 @@
         <v>42.179499999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>51.025599999999997</v>
       </c>
@@ -16460,7 +16541,7 @@
         <v>44.102600000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>45.384599999999999</v>
       </c>
@@ -16468,7 +16549,7 @@
         <v>36.410299999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>42.820500000000003</v>
       </c>
@@ -16476,7 +16557,7 @@
         <v>32.564100000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38.7179</v>
       </c>
@@ -16484,7 +16565,7 @@
         <v>31.410299999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>35.1282</v>
       </c>
@@ -16492,7 +16573,7 @@
         <v>30.256399999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>32.564100000000003</v>
       </c>
@@ -16500,7 +16581,7 @@
         <v>32.179499999999997</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>30</v>
       </c>
@@ -16508,7 +16589,7 @@
         <v>36.794899999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>33.589700000000001</v>
       </c>
@@ -16516,7 +16597,7 @@
         <v>41.410299999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>36.666699999999999</v>
       </c>
@@ -16524,7 +16605,7 @@
         <v>45.640999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>38.205100000000002</v>
       </c>
@@ -16532,7 +16613,7 @@
         <v>49.102600000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>29.743600000000001</v>
       </c>
@@ -16540,7 +16621,7 @@
         <v>36.025599999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>29.743600000000001</v>
       </c>
@@ -16548,7 +16629,7 @@
         <v>32.179499999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>30</v>
       </c>
@@ -16556,7 +16637,7 @@
         <v>29.102599999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>32.051299999999998</v>
       </c>
@@ -16564,7 +16645,7 @@
         <v>26.794899999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>35.897399999999998</v>
       </c>
@@ -16572,7 +16653,7 @@
         <v>25.256399999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>41.025599999999997</v>
       </c>
@@ -16580,7 +16661,7 @@
         <v>25.256399999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>44.102600000000002</v>
       </c>
@@ -16588,7 +16669,7 @@
         <v>25.640999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>47.179499999999997</v>
       </c>
@@ -16596,7 +16677,7 @@
         <v>28.718</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>49.487200000000001</v>
       </c>
@@ -16604,7 +16685,7 @@
         <v>31.410299999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51.538499999999999</v>
       </c>
@@ -16612,7 +16693,7 @@
         <v>34.8718</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53.589700000000001</v>
       </c>
@@ -16620,7 +16701,7 @@
         <v>37.564100000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55.1282</v>
       </c>
@@ -16628,7 +16709,7 @@
         <v>40.640999999999998</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56.666699999999999</v>
       </c>
@@ -16636,7 +16717,7 @@
         <v>42.179499999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>59.230800000000002</v>
       </c>
@@ -16644,7 +16725,7 @@
         <v>44.487200000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>62.307699999999997</v>
       </c>
@@ -16652,7 +16733,7 @@
         <v>46.025599999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>64.871799999999993</v>
       </c>
@@ -16660,7 +16741,7 @@
         <v>46.794899999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>67.948700000000002</v>
       </c>
@@ -16668,7 +16749,7 @@
         <v>47.948700000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>70.512799999999999</v>
       </c>
@@ -16676,7 +16757,7 @@
         <v>53.718000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>71.538499999999999</v>
       </c>
@@ -16684,7 +16765,7 @@
         <v>60.640999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>71.538499999999999</v>
       </c>
@@ -16692,7 +16773,7 @@
         <v>64.487200000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>69.487200000000001</v>
       </c>
@@ -16700,7 +16781,7 @@
         <v>69.487200000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>46.923099999999998</v>
       </c>
@@ -16708,7 +16789,7 @@
         <v>79.871799999999993</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>48.205100000000002</v>
       </c>
@@ -16716,7 +16797,7 @@
         <v>84.102599999999995</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>50</v>
       </c>
@@ -16724,7 +16805,7 @@
         <v>85.256399999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>53.076900000000002</v>
       </c>
@@ -16732,7 +16813,7 @@
         <v>85.256399999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>55.384599999999999</v>
       </c>
@@ -16740,7 +16821,7 @@
         <v>86.025599999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>56.666699999999999</v>
       </c>
@@ -16748,7 +16829,7 @@
         <v>86.025599999999997</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>56.153799999999997</v>
       </c>
@@ -16756,7 +16837,7 @@
         <v>82.948700000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>53.846200000000003</v>
       </c>
@@ -16764,7 +16845,7 @@
         <v>80.641000000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>51.2821</v>
       </c>
@@ -16772,7 +16853,7 @@
         <v>78.718000000000004</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>50</v>
       </c>
@@ -16780,7 +16861,7 @@
         <v>78.718000000000004</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>47.948700000000002</v>
       </c>
@@ -16788,7 +16869,7 @@
         <v>77.564099999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>29.743600000000001</v>
       </c>
@@ -16796,7 +16877,7 @@
         <v>59.8718</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>29.743600000000001</v>
       </c>
@@ -16804,7 +16885,7 @@
         <v>62.179499999999997</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>31.2821</v>
       </c>
@@ -16812,7 +16893,7 @@
         <v>62.564100000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>57.948700000000002</v>
       </c>
@@ -16820,7 +16901,7 @@
         <v>99.487200000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>61.794899999999998</v>
       </c>
@@ -16828,7 +16909,7 @@
         <v>99.102599999999995</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>64.871799999999993</v>
       </c>
@@ -16836,7 +16917,7 @@
         <v>97.564099999999996</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>68.461500000000001</v>
       </c>
@@ -16844,7 +16925,7 @@
         <v>94.102599999999995</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>70.769199999999998</v>
       </c>
@@ -16852,7 +16933,7 @@
         <v>91.025599999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>72.051299999999998</v>
       </c>
@@ -16860,7 +16941,7 @@
         <v>86.410300000000007</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>73.846199999999996</v>
       </c>
@@ -16868,7 +16949,7 @@
         <v>83.333299999999994</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>75.128200000000007</v>
       </c>
@@ -16876,7 +16957,7 @@
         <v>79.102599999999995</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>76.666700000000006</v>
       </c>
@@ -16884,7 +16965,7 @@
         <v>75.256399999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>77.692300000000003</v>
       </c>
@@ -16892,7 +16973,7 @@
         <v>71.410300000000007</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>79.743600000000001</v>
       </c>
@@ -16900,7 +16981,7 @@
         <v>66.794899999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>81.794899999999998</v>
       </c>
@@ -16908,7 +16989,7 @@
         <v>60.256399999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>83.333299999999994</v>
       </c>
@@ -16916,7 +16997,7 @@
         <v>55.256399999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>85.128200000000007</v>
       </c>
@@ -16924,7 +17005,7 @@
         <v>51.410299999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>86.410300000000007</v>
       </c>
@@ -16932,7 +17013,7 @@
         <v>47.564100000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>87.948700000000002</v>
       </c>
@@ -16940,7 +17021,7 @@
         <v>46.025599999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>89.487200000000001</v>
       </c>
@@ -16948,7 +17029,7 @@
         <v>42.564100000000003</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>93.333299999999994</v>
       </c>
@@ -16956,7 +17037,7 @@
         <v>39.8718</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>95.384600000000006</v>
       </c>
@@ -16964,7 +17045,7 @@
         <v>36.794899999999998</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98.205100000000002</v>
       </c>
@@ -16972,7 +17053,7 @@
         <v>33.718000000000004</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>56.666699999999999</v>
       </c>
@@ -16980,7 +17061,7 @@
         <v>40.640999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>59.230800000000002</v>
       </c>
@@ -16988,7 +17069,7 @@
         <v>38.333300000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>60.769199999999998</v>
       </c>
@@ -16996,7 +17077,7 @@
         <v>33.718000000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>63.076900000000002</v>
       </c>
@@ -17004,7 +17085,7 @@
         <v>29.102599999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>64.102599999999995</v>
       </c>
@@ -17012,7 +17093,7 @@
         <v>25.256399999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>64.358999999999995</v>
       </c>
@@ -17020,7 +17101,7 @@
         <v>24.102599999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>74.358999999999995</v>
       </c>
@@ -17028,7 +17109,7 @@
         <v>22.948699999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>71.2821</v>
       </c>
@@ -17036,7 +17117,7 @@
         <v>22.948699999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>67.948700000000002</v>
       </c>
@@ -17044,7 +17125,7 @@
         <v>22.179500000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>65.897400000000005</v>
       </c>
@@ -17052,7 +17133,7 @@
         <v>20.256399999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>63.076900000000002</v>
       </c>
@@ -17060,7 +17141,7 @@
         <v>19.102599999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>61.2821</v>
       </c>
@@ -17068,7 +17149,7 @@
         <v>19.102599999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>58.7179</v>
       </c>
@@ -17076,7 +17157,7 @@
         <v>18.333300000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>55.1282</v>
       </c>
@@ -17084,7 +17165,7 @@
         <v>18.333300000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>52.307699999999997</v>
       </c>
@@ -17092,7 +17173,7 @@
         <v>18.333300000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>49.743600000000001</v>
       </c>
@@ -17100,7 +17181,7 @@
         <v>17.5641</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>47.435899999999997</v>
       </c>
@@ -17108,7 +17189,7 @@
         <v>16.025600000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>44.8718</v>
       </c>
@@ -17116,7 +17197,7 @@
         <v>13.718</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>48.7179</v>
       </c>
@@ -17124,7 +17205,7 @@
         <v>14.8718</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>51.2821</v>
       </c>
@@ -17132,7 +17213,7 @@
         <v>14.8718</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>54.102600000000002</v>
       </c>
@@ -17140,7 +17221,7 @@
         <v>14.8718</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>56.153799999999997</v>
       </c>
@@ -17148,7 +17229,7 @@
         <v>14.102600000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>52.051299999999998</v>
       </c>
@@ -17156,7 +17237,7 @@
         <v>12.5641</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>48.7179</v>
       </c>
@@ -17164,7 +17245,7 @@
         <v>11.025600000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>47.179499999999997</v>
       </c>
@@ -17172,7 +17253,7 @@
         <v>9.8718000000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>46.153799999999997</v>
       </c>
@@ -17180,7 +17261,7 @@
         <v>6.0255999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>50.512799999999999</v>
       </c>
@@ -17188,7 +17269,7 @@
         <v>9.4871999999999996</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>53.846200000000003</v>
       </c>
@@ -17196,7 +17277,7 @@
         <v>10.256399999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>57.435899999999997</v>
       </c>
@@ -17204,7 +17285,7 @@
         <v>10.256399999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>60</v>
       </c>
@@ -17212,7 +17293,7 @@
         <v>10.641</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>64.102599999999995</v>
       </c>
@@ -17220,7 +17301,7 @@
         <v>10.641</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>66.923100000000005</v>
       </c>
@@ -17228,7 +17309,7 @@
         <v>10.641</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>71.2821</v>
       </c>
@@ -17236,7 +17317,7 @@
         <v>10.641</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>74.358999999999995</v>
       </c>
@@ -17244,7 +17325,7 @@
         <v>10.641</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>78.205100000000002</v>
       </c>
@@ -17252,7 +17333,7 @@
         <v>10.641</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>67.948700000000002</v>
       </c>
@@ -17260,7 +17341,7 @@
         <v>8.718</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>68.461500000000001</v>
       </c>
@@ -17268,7 +17349,7 @@
         <v>5.2564000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>68.205100000000002</v>
       </c>
@@ -17276,7 +17357,7 @@
         <v>2.9487000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>37.692300000000003</v>
       </c>
@@ -17284,7 +17365,7 @@
         <v>25.769200000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>39.487200000000001</v>
       </c>
@@ -17292,7 +17373,7 @@
         <v>25.384599999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>91.2821</v>
       </c>
@@ -17300,7 +17381,7 @@
         <v>41.538499999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>50</v>
       </c>
@@ -17308,7 +17389,7 @@
         <v>95.769199999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>47.948700000000002</v>
       </c>
@@ -17316,7 +17397,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>44.102600000000002</v>
       </c>
@@ -17325,7 +17406,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I10" r:id="rId1" xr:uid="{8EC3F0FB-D145-4F8D-AEFB-9CF3A023C477}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>